--- a/dataset/response01.xlsx
+++ b/dataset/response01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tashatanarugsachock/Desktop/shopperbot-llm/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113B5D11-3221-424E-A5BA-68264C29C9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DD5A37-2319-9E40-BA9B-2115F5FE06C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1378,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="141" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2899,5 +2899,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>